--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Search_Results/artifacts/service_model/information_model/IEPD/documentation/Custody_Search_Results-Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Search_Results/artifacts/service_model/information_model/IEPD/documentation/Custody_Search_Results-Mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27180" yWindow="1515" windowWidth="26235" windowHeight="14595" tabRatio="500"/>
+    <workbookView xWindow="7480" yWindow="3240" windowWidth="26240" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Custody Query Results Mappin" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>INMATE</t>
   </si>
   <si>
-    <t>MAPPING SPREADSHEET FOR CUSTODY QUERY RESULTS IEPD</t>
-  </si>
-  <si>
     <t>Use the middle name element for the initial</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>/cs-res-doc:CustodyQueryResults/ext:InmateCustody/j:Booking/j:BookingSubject/j:SubjectIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>/cs-res-doc:CustodyQueryResults/ext:InmateCustody/j:Booking/j:FingerprintDate</t>
-  </si>
-  <si>
     <t>/cs-res-doc:CustodyQueryResults/ext:InmateCustody/j:Booking/nc:Image</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>/cs-res-doc:CustodyQueryResults/ext:InmateCustody/j:Charge/j:ChargeStatute/j:StatuteCodeIdentification/nc:IdentificationCategoryDescriptionText</t>
+  </si>
+  <si>
+    <t>MAPPING SPREADSHEET FOR CUSTODY SEARCH RESULTS IEPD</t>
+  </si>
+  <si>
+    <t>/cs-res-doc:CustodyQueryResults/ext:InmateCustody/j:Booking/nc:ActivityDate/nc:DateTime</t>
   </si>
 </sst>
 </file>
@@ -1973,26 +1973,26 @@
   <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="21" style="3" customWidth="1"/>
-    <col min="6" max="6" width="83.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="83.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="24" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="3"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2001,7 +2001,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2036,7 +2036,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
@@ -2051,13 +2051,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -2072,13 +2072,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="31.5">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -2093,13 +2093,13 @@
         <v>16</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2110,7 +2110,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
@@ -2125,11 +2125,11 @@
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
         <v>26</v>
       </c>
@@ -2144,11 +2144,11 @@
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2159,11 +2159,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="17"/>
       <c r="B11" s="17" t="s">
         <v>26</v>
@@ -2176,13 +2176,13 @@
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
@@ -2197,12 +2197,12 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
@@ -2215,12 +2215,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="20" t="s">
@@ -2231,12 +2231,12 @@
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>26</v>
@@ -2247,12 +2247,12 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="44" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>26</v>
       </c>
@@ -2267,11 +2267,11 @@
         <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
@@ -2284,11 +2284,11 @@
         <v>22</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="21" t="s">
         <v>26</v>
       </c>
@@ -2296,15 +2296,15 @@
       <c r="C18" s="21"/>
       <c r="D18"/>
       <c r="E18" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
@@ -2315,11 +2315,11 @@
         <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="18" t="s">
         <v>26</v>
       </c>
@@ -2330,11 +2330,11 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="18" t="s">
         <v>26</v>
       </c>
@@ -2345,11 +2345,11 @@
         <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2359,7 +2359,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2369,7 +2369,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2379,7 +2379,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2389,7 +2389,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -2399,7 +2399,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -2409,7 +2409,7 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -2419,7 +2419,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2429,7 +2429,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -2439,7 +2439,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2449,7 +2449,7 @@
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2459,7 +2459,7 @@
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2469,7 +2469,7 @@
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -2479,7 +2479,7 @@
       <c r="G34"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2489,7 +2489,7 @@
       <c r="G35"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -2499,7 +2499,7 @@
       <c r="G36"/>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -2509,7 +2509,7 @@
       <c r="G37"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -2519,7 +2519,7 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -2529,7 +2529,7 @@
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2539,7 +2539,7 @@
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2549,7 +2549,7 @@
       <c r="G41"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2559,7 +2559,7 @@
       <c r="G42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2569,7 +2569,7 @@
       <c r="G43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2579,7 +2579,7 @@
       <c r="G44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -2589,7 +2589,7 @@
       <c r="G45"/>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -2599,7 +2599,7 @@
       <c r="G46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -2609,7 +2609,7 @@
       <c r="G47"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -2619,7 +2619,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2629,7 +2629,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2639,7 +2639,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2649,7 +2649,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2659,7 +2659,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -2669,7 +2669,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2679,7 +2679,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -2689,7 +2689,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -2699,7 +2699,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2709,7 +2709,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -2719,7 +2719,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -2729,7 +2729,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -2739,7 +2739,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -2749,7 +2749,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -2759,7 +2759,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -2769,7 +2769,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -2779,7 +2779,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -2789,7 +2789,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -2799,7 +2799,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -2809,7 +2809,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -2819,7 +2819,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -2829,7 +2829,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -2839,7 +2839,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -2849,7 +2849,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -2859,7 +2859,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -2869,7 +2869,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -2879,7 +2879,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -2889,7 +2889,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -2899,7 +2899,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -2909,7 +2909,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -2919,7 +2919,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -2929,7 +2929,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -2939,7 +2939,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -2949,7 +2949,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -2959,7 +2959,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -2969,7 +2969,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -2979,7 +2979,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -2989,7 +2989,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -2999,7 +2999,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3009,7 +3009,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3019,7 +3019,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3029,7 +3029,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3039,7 +3039,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -3049,7 +3049,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -3059,7 +3059,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -3069,7 +3069,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -3079,7 +3079,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -3089,7 +3089,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -3099,7 +3099,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -3109,7 +3109,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -3119,7 +3119,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -3129,7 +3129,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -3139,7 +3139,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -3149,7 +3149,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -3159,7 +3159,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -3169,7 +3169,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -3179,7 +3179,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -3189,7 +3189,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -3199,7 +3199,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -3209,7 +3209,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -3219,7 +3219,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -3229,7 +3229,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -3239,7 +3239,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -3249,7 +3249,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -3259,7 +3259,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -3269,7 +3269,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -3279,7 +3279,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -3289,7 +3289,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -3299,7 +3299,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -3309,7 +3309,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -3319,7 +3319,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -3329,7 +3329,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -3339,7 +3339,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -3349,7 +3349,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -3359,7 +3359,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -3369,7 +3369,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -3379,7 +3379,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -3389,7 +3389,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -3399,7 +3399,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -3409,7 +3409,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -3419,7 +3419,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -3429,7 +3429,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -3439,7 +3439,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -3449,7 +3449,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -3459,7 +3459,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -3469,7 +3469,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -3479,7 +3479,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -3489,7 +3489,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -3499,7 +3499,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -3509,7 +3509,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -3519,7 +3519,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -3529,7 +3529,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -3539,7 +3539,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -3549,7 +3549,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -3559,7 +3559,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -3569,7 +3569,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -3579,7 +3579,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
@@ -3589,7 +3589,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
@@ -3599,7 +3599,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="21"/>
@@ -3609,7 +3609,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="21"/>
@@ -3619,7 +3619,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
@@ -3629,7 +3629,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
@@ -3639,7 +3639,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
@@ -3649,7 +3649,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
@@ -3659,7 +3659,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
@@ -3669,7 +3669,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
@@ -3679,7 +3679,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
@@ -3689,7 +3689,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
@@ -3699,7 +3699,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
@@ -3709,7 +3709,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
@@ -3719,7 +3719,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -3729,7 +3729,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
@@ -3739,7 +3739,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="21"/>
@@ -3749,7 +3749,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
@@ -3759,7 +3759,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
@@ -3769,7 +3769,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
@@ -3779,7 +3779,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
@@ -3789,7 +3789,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
@@ -3799,7 +3799,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="21"/>
@@ -3809,7 +3809,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -3819,7 +3819,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -3829,7 +3829,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -3839,7 +3839,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
@@ -3849,7 +3849,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
@@ -3859,7 +3859,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="21"/>
@@ -3869,7 +3869,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
@@ -3879,7 +3879,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
@@ -3889,7 +3889,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
@@ -3899,7 +3899,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="21"/>
@@ -3909,7 +3909,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="21"/>
@@ -3919,7 +3919,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="21"/>
@@ -3929,7 +3929,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="21"/>
       <c r="B180" s="21"/>
       <c r="C180" s="21"/>
@@ -3939,7 +3939,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="21"/>
       <c r="B181" s="21"/>
       <c r="C181" s="21"/>
@@ -3949,7 +3949,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
       <c r="C182" s="21"/>
@@ -3959,7 +3959,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="21"/>
       <c r="B183" s="21"/>
       <c r="C183" s="21"/>
@@ -3969,7 +3969,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="21"/>
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
@@ -3979,7 +3979,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="21"/>
       <c r="B185" s="21"/>
       <c r="C185" s="21"/>
@@ -3989,7 +3989,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="21"/>
       <c r="B186" s="21"/>
       <c r="C186" s="21"/>
@@ -3999,7 +3999,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="21"/>
       <c r="B187" s="21"/>
       <c r="C187" s="21"/>
@@ -4009,7 +4009,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="21"/>
       <c r="B188" s="21"/>
       <c r="C188" s="21"/>
@@ -4019,7 +4019,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="21"/>
       <c r="B189" s="21"/>
       <c r="C189" s="21"/>
@@ -4029,7 +4029,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="21"/>
       <c r="B190" s="21"/>
       <c r="C190" s="21"/>
@@ -4039,7 +4039,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -4049,7 +4049,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="21"/>
       <c r="B192" s="21"/>
       <c r="C192" s="21"/>
@@ -4059,7 +4059,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="21"/>
       <c r="B193" s="21"/>
       <c r="C193" s="21"/>
@@ -4069,7 +4069,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="21"/>
       <c r="B194" s="21"/>
       <c r="C194" s="21"/>
@@ -4079,7 +4079,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="21"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -4089,7 +4089,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="21"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -4099,7 +4099,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -4109,7 +4109,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
@@ -4119,7 +4119,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="21"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
@@ -4129,7 +4129,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
@@ -4139,7 +4139,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="21"/>
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
@@ -4149,7 +4149,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="21"/>
       <c r="B202" s="21"/>
       <c r="C202" s="21"/>
@@ -4159,7 +4159,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="21"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
@@ -4169,7 +4169,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="21"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -4179,7 +4179,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="21"/>
       <c r="B205" s="21"/>
       <c r="C205" s="21"/>
@@ -4189,7 +4189,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="21"/>
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
@@ -4199,7 +4199,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="21"/>
       <c r="B207" s="21"/>
       <c r="C207" s="21"/>
@@ -4209,7 +4209,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="21"/>
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
@@ -4219,7 +4219,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="21"/>
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
@@ -4229,7 +4229,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="21"/>
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
@@ -4239,7 +4239,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="21"/>
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
@@ -4249,7 +4249,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="21"/>
       <c r="B212" s="21"/>
       <c r="C212" s="21"/>
@@ -4259,7 +4259,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="21"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
@@ -4269,7 +4269,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="21"/>
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
@@ -4279,7 +4279,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="21"/>
       <c r="B215" s="21"/>
       <c r="C215" s="21"/>
@@ -4289,7 +4289,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="21"/>
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
@@ -4299,7 +4299,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="21"/>
       <c r="B217" s="21"/>
       <c r="C217" s="21"/>
@@ -4309,7 +4309,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="21"/>
       <c r="B218" s="21"/>
       <c r="C218" s="21"/>
@@ -4319,7 +4319,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="21"/>
       <c r="B219" s="21"/>
       <c r="C219" s="21"/>
@@ -4329,7 +4329,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="21"/>
       <c r="B220" s="21"/>
       <c r="C220" s="21"/>
@@ -4339,7 +4339,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="21"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
@@ -4349,7 +4349,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="21"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
@@ -4359,7 +4359,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="21"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -4369,7 +4369,7 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="21"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -4379,7 +4379,7 @@
       <c r="G224"/>
       <c r="H224"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="21"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
@@ -4389,7 +4389,7 @@
       <c r="G225"/>
       <c r="H225"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="21"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
@@ -4399,7 +4399,7 @@
       <c r="G226"/>
       <c r="H226"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="21"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
@@ -4409,7 +4409,7 @@
       <c r="G227"/>
       <c r="H227"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="21"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
@@ -4419,7 +4419,7 @@
       <c r="G228"/>
       <c r="H228"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="21"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
@@ -4429,7 +4429,7 @@
       <c r="G229"/>
       <c r="H229"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="21"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
@@ -4439,7 +4439,7 @@
       <c r="G230"/>
       <c r="H230"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="21"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
@@ -4449,7 +4449,7 @@
       <c r="G231"/>
       <c r="H231"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="21"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
@@ -4459,7 +4459,7 @@
       <c r="G232"/>
       <c r="H232"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="21"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
@@ -4469,7 +4469,7 @@
       <c r="G233"/>
       <c r="H233"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="21"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
@@ -4479,7 +4479,7 @@
       <c r="G234"/>
       <c r="H234"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="21"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
@@ -4489,7 +4489,7 @@
       <c r="G235"/>
       <c r="H235"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
@@ -4499,7 +4499,7 @@
       <c r="G236"/>
       <c r="H236"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="21"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
@@ -4509,7 +4509,7 @@
       <c r="G237"/>
       <c r="H237"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="21"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
@@ -4519,7 +4519,7 @@
       <c r="G238"/>
       <c r="H238"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="21"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
@@ -4529,7 +4529,7 @@
       <c r="G239"/>
       <c r="H239"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="21"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
@@ -4539,7 +4539,7 @@
       <c r="G240"/>
       <c r="H240"/>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="15.75" hidden="1">
       <c r="A241" s="21"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
@@ -4549,7 +4549,7 @@
       <c r="G241"/>
       <c r="H241"/>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="15.75" hidden="1">
       <c r="A242" s="21"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
@@ -4559,7 +4559,7 @@
       <c r="G242"/>
       <c r="H242"/>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="15.75" hidden="1">
       <c r="A243" s="21"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
@@ -4569,7 +4569,7 @@
       <c r="G243"/>
       <c r="H243"/>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="15.75" hidden="1">
       <c r="A244" s="21"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
@@ -4579,7 +4579,7 @@
       <c r="G244"/>
       <c r="H244"/>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="15.75" hidden="1">
       <c r="A245" s="21"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
@@ -4589,7 +4589,7 @@
       <c r="G245"/>
       <c r="H245"/>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="15.75" hidden="1">
       <c r="A246" s="21"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
@@ -4599,7 +4599,7 @@
       <c r="G246"/>
       <c r="H246"/>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="15.75" hidden="1">
       <c r="A247" s="21"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
@@ -4609,7 +4609,7 @@
       <c r="G247"/>
       <c r="H247"/>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="15.75" hidden="1">
       <c r="A248" s="21"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
@@ -4619,7 +4619,7 @@
       <c r="G248"/>
       <c r="H248"/>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="15.75" hidden="1">
       <c r="A249" s="21"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -4629,7 +4629,7 @@
       <c r="G249"/>
       <c r="H249"/>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="15.75" hidden="1">
       <c r="A250" s="21"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -4639,7 +4639,7 @@
       <c r="G250"/>
       <c r="H250"/>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="15.75" hidden="1">
       <c r="A251" s="21"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -4649,7 +4649,7 @@
       <c r="G251"/>
       <c r="H251"/>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="15.75" hidden="1">
       <c r="A252" s="21"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
@@ -4659,7 +4659,7 @@
       <c r="G252"/>
       <c r="H252"/>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="15.75" hidden="1">
       <c r="A253" s="21"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
@@ -4669,7 +4669,7 @@
       <c r="G253"/>
       <c r="H253"/>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="15.75" hidden="1">
       <c r="A254" s="21"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
@@ -4679,7 +4679,7 @@
       <c r="G254"/>
       <c r="H254"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="21"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -4689,7 +4689,7 @@
       <c r="G255"/>
       <c r="H255"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="21"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
@@ -4699,7 +4699,7 @@
       <c r="G256"/>
       <c r="H256"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="21"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
@@ -4709,7 +4709,7 @@
       <c r="G257"/>
       <c r="H257"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="21"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
@@ -4719,7 +4719,7 @@
       <c r="G258"/>
       <c r="H258"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="21"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
@@ -4729,7 +4729,7 @@
       <c r="G259"/>
       <c r="H259"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="21"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
@@ -4739,7 +4739,7 @@
       <c r="G260"/>
       <c r="H260"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="21"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
@@ -4749,7 +4749,7 @@
       <c r="G261"/>
       <c r="H261"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="21"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
@@ -4759,7 +4759,7 @@
       <c r="G262"/>
       <c r="H262"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="21"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
@@ -4769,7 +4769,7 @@
       <c r="G263"/>
       <c r="H263"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="21"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
@@ -4779,7 +4779,7 @@
       <c r="G264"/>
       <c r="H264"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="21"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
@@ -4789,7 +4789,7 @@
       <c r="G265"/>
       <c r="H265"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="21"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
@@ -4799,7 +4799,7 @@
       <c r="G266"/>
       <c r="H266"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="21"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
@@ -4809,7 +4809,7 @@
       <c r="G267"/>
       <c r="H267"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="21"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
@@ -4819,7 +4819,7 @@
       <c r="G268"/>
       <c r="H268"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="21"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
@@ -4829,7 +4829,7 @@
       <c r="G269"/>
       <c r="H269"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="21"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
@@ -4839,7 +4839,7 @@
       <c r="G270"/>
       <c r="H270"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="21"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
@@ -4849,7 +4849,7 @@
       <c r="G271"/>
       <c r="H271"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="21"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
@@ -4859,7 +4859,7 @@
       <c r="G272"/>
       <c r="H272"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="21"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
@@ -4869,7 +4869,7 @@
       <c r="G273"/>
       <c r="H273"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="21"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
@@ -4879,7 +4879,7 @@
       <c r="G274"/>
       <c r="H274"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="21"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
@@ -4889,7 +4889,7 @@
       <c r="G275"/>
       <c r="H275"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="21"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -4899,7 +4899,7 @@
       <c r="G276"/>
       <c r="H276"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="21"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -4909,7 +4909,7 @@
       <c r="G277"/>
       <c r="H277"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="21"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -4919,7 +4919,7 @@
       <c r="G278"/>
       <c r="H278"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="21"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
@@ -4929,7 +4929,7 @@
       <c r="G279"/>
       <c r="H279"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="21"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
@@ -4939,7 +4939,7 @@
       <c r="G280"/>
       <c r="H280"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="21"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
@@ -4949,7 +4949,7 @@
       <c r="G281"/>
       <c r="H281"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="21"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
@@ -4959,7 +4959,7 @@
       <c r="G282"/>
       <c r="H282"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" s="21"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
@@ -4969,7 +4969,7 @@
       <c r="G283"/>
       <c r="H283"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" s="21"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
@@ -4979,7 +4979,7 @@
       <c r="G284"/>
       <c r="H284"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" s="21"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
@@ -4989,7 +4989,7 @@
       <c r="G285"/>
       <c r="H285"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" s="21"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
@@ -4999,7 +4999,7 @@
       <c r="G286"/>
       <c r="H286"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" s="21"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
@@ -5009,7 +5009,7 @@
       <c r="G287"/>
       <c r="H287"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" s="21"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
@@ -5019,7 +5019,7 @@
       <c r="G288"/>
       <c r="H288"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" s="21"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
@@ -5029,7 +5029,7 @@
       <c r="G289"/>
       <c r="H289"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" s="21"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
@@ -5039,7 +5039,7 @@
       <c r="G290"/>
       <c r="H290"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" s="21"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
@@ -5049,7 +5049,7 @@
       <c r="G291"/>
       <c r="H291"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" s="21"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
@@ -5059,7 +5059,7 @@
       <c r="G292"/>
       <c r="H292"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="21"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
@@ -5069,7 +5069,7 @@
       <c r="G293"/>
       <c r="H293"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="21"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
@@ -5079,7 +5079,7 @@
       <c r="G294"/>
       <c r="H294"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="21"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
@@ -5089,7 +5089,7 @@
       <c r="G295"/>
       <c r="H295"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="21"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -5099,7 +5099,7 @@
       <c r="G296"/>
       <c r="H296"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" s="21"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
@@ -5109,7 +5109,7 @@
       <c r="G297"/>
       <c r="H297"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" s="21"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
@@ -5119,7 +5119,7 @@
       <c r="G298"/>
       <c r="H298"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" s="21"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
@@ -5129,7 +5129,7 @@
       <c r="G299"/>
       <c r="H299"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" s="21"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
@@ -5139,7 +5139,7 @@
       <c r="G300"/>
       <c r="H300"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" s="21"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
@@ -5149,7 +5149,7 @@
       <c r="G301"/>
       <c r="H301"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" s="21"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
@@ -5159,7 +5159,7 @@
       <c r="G302"/>
       <c r="H302"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" s="21"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
@@ -5169,7 +5169,7 @@
       <c r="G303"/>
       <c r="H303"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" s="21"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -5179,7 +5179,7 @@
       <c r="G304"/>
       <c r="H304"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" s="21"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -5189,7 +5189,7 @@
       <c r="G305"/>
       <c r="H305"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" s="21"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
@@ -5199,7 +5199,7 @@
       <c r="G306"/>
       <c r="H306"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" s="21"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
@@ -5209,7 +5209,7 @@
       <c r="G307"/>
       <c r="H307"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" s="21"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
@@ -5219,7 +5219,7 @@
       <c r="G308"/>
       <c r="H308"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309" s="21"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
@@ -5229,7 +5229,7 @@
       <c r="G309"/>
       <c r="H309"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310" s="21"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
@@ -5239,7 +5239,7 @@
       <c r="G310"/>
       <c r="H310"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" s="21"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
@@ -5249,7 +5249,7 @@
       <c r="G311"/>
       <c r="H311"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" s="21"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
@@ -5259,7 +5259,7 @@
       <c r="G312"/>
       <c r="H312"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" s="21"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
@@ -5269,7 +5269,7 @@
       <c r="G313"/>
       <c r="H313"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" s="21"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
@@ -5279,7 +5279,7 @@
       <c r="G314"/>
       <c r="H314"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" s="21"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
@@ -5289,7 +5289,7 @@
       <c r="G315"/>
       <c r="H315"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" s="21"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
@@ -5299,7 +5299,7 @@
       <c r="G316"/>
       <c r="H316"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" s="21"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
@@ -5309,7 +5309,7 @@
       <c r="G317"/>
       <c r="H317"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" s="21"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
@@ -5319,7 +5319,7 @@
       <c r="G318"/>
       <c r="H318"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" s="21"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
@@ -5329,7 +5329,7 @@
       <c r="G319"/>
       <c r="H319"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320" s="21"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
@@ -5339,7 +5339,7 @@
       <c r="G320"/>
       <c r="H320"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321" s="21"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
@@ -5349,7 +5349,7 @@
       <c r="G321"/>
       <c r="H321"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322" s="21"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
@@ -5359,7 +5359,7 @@
       <c r="G322"/>
       <c r="H322"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323" s="21"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
@@ -5369,7 +5369,7 @@
       <c r="G323"/>
       <c r="H323"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324" s="21"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
@@ -5379,7 +5379,7 @@
       <c r="G324"/>
       <c r="H324"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325" s="21"/>
       <c r="B325" s="21"/>
       <c r="C325" s="21"/>
@@ -5389,7 +5389,7 @@
       <c r="G325"/>
       <c r="H325"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326" s="21"/>
       <c r="B326" s="21"/>
       <c r="C326" s="21"/>
@@ -5399,7 +5399,7 @@
       <c r="G326"/>
       <c r="H326"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327" s="21"/>
       <c r="B327" s="21"/>
       <c r="C327" s="21"/>
@@ -5409,7 +5409,7 @@
       <c r="G327"/>
       <c r="H327"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328" s="21"/>
       <c r="B328" s="21"/>
       <c r="C328" s="21"/>
@@ -5419,7 +5419,7 @@
       <c r="G328"/>
       <c r="H328"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329" s="21"/>
       <c r="B329" s="21"/>
       <c r="C329" s="21"/>
@@ -5429,7 +5429,7 @@
       <c r="G329"/>
       <c r="H329"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330" s="21"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -5439,7 +5439,7 @@
       <c r="G330"/>
       <c r="H330"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331" s="21"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -5449,7 +5449,7 @@
       <c r="G331"/>
       <c r="H331"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332" s="21"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -5459,7 +5459,7 @@
       <c r="G332"/>
       <c r="H332"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333" s="21"/>
       <c r="B333" s="21"/>
       <c r="C333" s="21"/>
@@ -5469,7 +5469,7 @@
       <c r="G333"/>
       <c r="H333"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334" s="21"/>
       <c r="B334" s="21"/>
       <c r="C334" s="21"/>
@@ -5479,7 +5479,7 @@
       <c r="G334"/>
       <c r="H334"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335" s="21"/>
       <c r="B335" s="21"/>
       <c r="C335" s="21"/>
@@ -5489,7 +5489,7 @@
       <c r="G335"/>
       <c r="H335"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336" s="21"/>
       <c r="B336" s="21"/>
       <c r="C336" s="21"/>
@@ -5499,7 +5499,7 @@
       <c r="G336"/>
       <c r="H336"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" s="21"/>
       <c r="B337" s="21"/>
       <c r="C337" s="21"/>
@@ -5509,7 +5509,7 @@
       <c r="G337"/>
       <c r="H337"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" s="21"/>
       <c r="B338" s="21"/>
       <c r="C338" s="21"/>
@@ -5519,7 +5519,7 @@
       <c r="G338"/>
       <c r="H338"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" s="21"/>
       <c r="B339" s="21"/>
       <c r="C339" s="21"/>
@@ -5529,7 +5529,7 @@
       <c r="G339"/>
       <c r="H339"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" s="21"/>
       <c r="B340" s="21"/>
       <c r="C340" s="21"/>
@@ -5539,7 +5539,7 @@
       <c r="G340"/>
       <c r="H340"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" s="21"/>
       <c r="B341" s="21"/>
       <c r="C341" s="21"/>
@@ -5549,7 +5549,7 @@
       <c r="G341"/>
       <c r="H341"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" s="21"/>
       <c r="B342" s="21"/>
       <c r="C342" s="21"/>
@@ -5559,7 +5559,7 @@
       <c r="G342"/>
       <c r="H342"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" s="21"/>
       <c r="B343" s="21"/>
       <c r="C343" s="21"/>
@@ -5569,7 +5569,7 @@
       <c r="G343"/>
       <c r="H343"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" s="21"/>
       <c r="B344" s="21"/>
       <c r="C344" s="21"/>
@@ -5579,7 +5579,7 @@
       <c r="G344"/>
       <c r="H344"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" s="21"/>
       <c r="B345" s="21"/>
       <c r="C345" s="21"/>
@@ -5589,7 +5589,7 @@
       <c r="G345"/>
       <c r="H345"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" s="21"/>
       <c r="B346" s="21"/>
       <c r="C346" s="21"/>
@@ -5599,7 +5599,7 @@
       <c r="G346"/>
       <c r="H346"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347" s="21"/>
       <c r="B347" s="21"/>
       <c r="C347" s="21"/>
@@ -5609,7 +5609,7 @@
       <c r="G347"/>
       <c r="H347"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348" s="21"/>
       <c r="B348" s="21"/>
       <c r="C348" s="21"/>
@@ -5619,7 +5619,7 @@
       <c r="G348"/>
       <c r="H348"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" s="21"/>
       <c r="B349" s="21"/>
       <c r="C349" s="21"/>
@@ -5629,7 +5629,7 @@
       <c r="G349"/>
       <c r="H349"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" s="21"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -5639,7 +5639,7 @@
       <c r="G350"/>
       <c r="H350"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" s="21"/>
       <c r="B351" s="21"/>
       <c r="C351" s="21"/>
@@ -5649,7 +5649,7 @@
       <c r="G351"/>
       <c r="H351"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" s="21"/>
       <c r="B352" s="21"/>
       <c r="C352" s="21"/>
